--- a/medicine/Sexualité et sexologie/Le_Désirable_et_le_Sublime/Le_Désirable_et_le_Sublime.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Désirable_et_le_Sublime/Le_Désirable_et_le_Sublime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9sirable_et_le_Sublime</t>
+          <t>Le_Désirable_et_le_Sublime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Désirable et le Sublime est un film français « intello-érotique » réalisé par José Bénazéraf, sorti en 1969.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9sirable_et_le_Sublime</t>
+          <t>Le_Désirable_et_le_Sublime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un couple mène une vie harmonieuse dans une propriété retirée sur l'île de Chausey. Un soir, un ami vient dîner. Comme on est en période électorale, les candidats à la présidence de la République se succèdent à la télévision. Les passions vont se déchaîner entre l'abstraction des mots et la réalité du désir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9sirable_et_le_Sublime</t>
+          <t>Le_Désirable_et_le_Sublime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Désirable et le Sublime
 Réalisation, scénario &amp; dialogues : José Bénazéraf
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9sirable_et_le_Sublime</t>
+          <t>Le_Désirable_et_le_Sublime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ludia Lorenz
 Henri Piégay
